--- a/sample/benchmarks/02_can/data_sheet.xlsx
+++ b/sample/benchmarks/02_can/data_sheet.xlsx
@@ -489,13 +489,13 @@
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.1</c:v>
+                  <c:v>21.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.8</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,11 +565,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197278336"/>
-        <c:axId val="197292416"/>
+        <c:axId val="240405120"/>
+        <c:axId val="240415104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197278336"/>
+        <c:axId val="240405120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197292416"/>
+        <c:crossAx val="240415104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -587,7 +587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197292416"/>
+        <c:axId val="240415104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,7 +598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197278336"/>
+        <c:crossAx val="240405120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1260,7 +1260,7 @@
   <dimension ref="B1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1396,23 +1396,23 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="F5" s="15">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="G5" s="15">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="0"/>
-        <v>2.8999999999999995</v>
+        <v>3.5</v>
       </c>
       <c r="I5" s="1">
         <v>70.14</v>
       </c>
       <c r="J5" s="5">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="K5" s="4">
-        <v>8.3862000000000003E-7</v>
+        <v>8.7772739999999995E-7</v>
       </c>
       <c r="L5" s="3">
         <v>9.9999999999999995E-7</v>
@@ -1531,26 +1531,26 @@
         <v>10</v>
       </c>
       <c r="E9" s="15">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="F9" s="15">
-        <v>29.1</v>
+        <v>21.7</v>
       </c>
       <c r="G9" s="15">
-        <v>40.5</v>
+        <v>33</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>11.399999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="I9" s="7">
         <v>93.81</v>
       </c>
       <c r="J9" s="5">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="K9" s="4">
-        <v>8.2137629999999999E-7</v>
+        <v>9.3687739999999995E-7</v>
       </c>
       <c r="L9" s="3">
         <v>9.9999999999999995E-7</v>
@@ -1668,26 +1668,26 @@
         <v>10</v>
       </c>
       <c r="E13" s="15">
-        <v>71.5</v>
+        <v>65.5</v>
       </c>
       <c r="F13" s="15">
-        <v>68.8</v>
+        <v>56.5</v>
       </c>
       <c r="G13" s="15">
-        <v>93.9</v>
+        <v>103.8</v>
       </c>
       <c r="H13" s="6">
         <f>G13-F13</f>
-        <v>25.100000000000009</v>
+        <v>47.3</v>
       </c>
       <c r="I13" s="7">
         <v>104.25</v>
       </c>
       <c r="J13" s="5">
-        <v>89</v>
-      </c>
-      <c r="K13" s="3">
-        <v>9.610119999999999E-7</v>
+        <v>36</v>
+      </c>
+      <c r="K13" s="4">
+        <v>8.5379120000000004E-7</v>
       </c>
       <c r="L13" s="3">
         <v>9.9999999999999995E-7</v>
@@ -1799,13 +1799,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="15">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="G22" s="15">
-        <v>29.1</v>
+        <v>21.7</v>
       </c>
       <c r="H22" s="15">
-        <v>68.8</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.15">
@@ -1890,15 +1890,15 @@
       </c>
       <c r="F29" s="6">
         <f t="shared" si="3"/>
-        <v>16.600000000000001</v>
+        <v>17</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="4"/>
-        <v>77.5</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="5"/>
-        <v>165.4</v>
+        <v>169.3</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.15">
